--- a/res/excel/mapping.xlsx
+++ b/res/excel/mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="茫然遗迹" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3096" uniqueCount="1362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3096" uniqueCount="1363">
   <si>
     <t>Name
 (策划看)</t>
@@ -1340,7 +1340,7 @@
     <t>['命运的战旗Ⅱ']</t>
   </si>
   <si>
-    <t>掉落包中所有物品中文名称</t>
+    <t>掉落包中所有物品中文名称（中间缺少-，需要手动添加）</t>
   </si>
   <si>
     <t>【204饰品本】首饰冰元素关卡1随机掉落</t>
@@ -1355,7 +1355,7 @@
     <t>冰元素1</t>
   </si>
   <si>
-    <t>['帝国冰晶核心', '联盟冰晶核心', '圣林冰晶核心', '蛮血冰晶核心', '光明冰晶核心', '暗影冰晶核心']</t>
+    <t>['帝国-冰晶核心', '联盟-冰晶核心', '圣林-冰晶核心', '蛮血-冰晶核心', '光明-冰晶核心', '暗影-冰晶核心']</t>
   </si>
   <si>
     <t>{2072101,1}</t>
@@ -1637,7 +1637,7 @@
     <t>火元素1</t>
   </si>
   <si>
-    <t>['帝国焱火核心', '联盟焱火核心', '圣林焱火核心', '蛮血焱火核心', '光明焱火核心', '暗影焱火核心']</t>
+    <t>['帝国-焱火核心', '联盟-焱火核心', '圣林-焱火核心', '蛮血-焱火核心', '光明-焱火核心', '暗影-焱火核心']</t>
   </si>
   <si>
     <t>{2082101,1}</t>
@@ -1919,7 +1919,7 @@
     <t>木元素1</t>
   </si>
   <si>
-    <t>['帝国和风核心', '联盟和风核心', '圣林和风核心', '蛮血和风核心', '光明和风核心', '暗影和风核心']</t>
+    <t>['帝国-和风核心', '联盟-和风核心', '圣林-和风核心', '蛮血-和风核心', '光明-和风核心', '暗影-和风核心']</t>
   </si>
   <si>
     <t>{2092101,1}</t>
@@ -2201,7 +2201,7 @@
     <t>木元素21</t>
   </si>
   <si>
-    <t>['帝国沃土核心', '联盟沃土核心', '圣林沃土核心', '蛮血沃土核心', '光明沃土核心', '暗影沃土核心']</t>
+    <t>['帝国-沃土核心', '联盟-沃土核心', '圣林-沃土核心', '蛮血-沃土核心', '光明-沃土核心', '暗影-沃土核心']</t>
   </si>
   <si>
     <t>{2102101,1}</t>
@@ -2494,6 +2494,9 @@
 3-权重抽取-填权重，权重算总和
 4-自主选择
 若直接掉落英雄，则填英雄ID</t>
+  </si>
+  <si>
+    <t>掉落包中所有物品中文名称</t>
   </si>
   <si>
     <t>首通掉落物品名称</t>
@@ -7753,10 +7756,10 @@
   <sheetPr/>
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10376,7 +10379,7 @@
   <sheetPr/>
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="I83" sqref="I83"/>
@@ -10419,18 +10422,18 @@
         <v>6</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>432</v>
+        <v>812</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B2" s="7">
         <v>3</v>
@@ -10442,19 +10445,19 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H2" s="11"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B3" s="7">
         <v>3</v>
@@ -10466,19 +10469,19 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H3" s="11"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
@@ -10490,19 +10493,19 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H4" s="11"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B5" s="7">
         <v>3</v>
@@ -10514,19 +10517,19 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H5" s="11"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B6" s="7">
         <v>3</v>
@@ -10538,19 +10541,19 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H6" s="11"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B7" s="7">
         <v>3</v>
@@ -10562,19 +10565,19 @@
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H7" s="11"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B8" s="7">
         <v>3</v>
@@ -10586,19 +10589,19 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H8" s="11"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B9" s="7">
         <v>3</v>
@@ -10610,19 +10613,19 @@
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H9" s="11"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B10" s="7">
         <v>3</v>
@@ -10634,19 +10637,19 @@
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H10" s="11"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B11" s="7">
         <v>3</v>
@@ -10658,19 +10661,19 @@
         <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H11" s="11"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B12" s="7">
         <v>3</v>
@@ -10682,19 +10685,19 @@
         <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H12" s="11"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B13" s="7">
         <v>3</v>
@@ -10706,19 +10709,19 @@
         <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H13" s="11"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B14" s="7">
         <v>3</v>
@@ -10730,19 +10733,19 @@
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B15" s="7">
         <v>3</v>
@@ -10754,19 +10757,19 @@
         <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H15" s="11"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B16" s="7">
         <v>3</v>
@@ -10778,19 +10781,19 @@
         <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H16" s="11"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B17" s="7">
         <v>3</v>
@@ -10802,19 +10805,19 @@
         <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H17" s="11"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B18" s="7">
         <v>3</v>
@@ -10826,19 +10829,19 @@
         <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H18" s="11"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B19" s="7">
         <v>3</v>
@@ -10850,19 +10853,19 @@
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H19" s="11"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B20" s="7">
         <v>3</v>
@@ -10874,19 +10877,19 @@
         <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H20" s="11"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B21" s="7">
         <v>3</v>
@@ -10898,19 +10901,19 @@
         <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H21" s="11"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B22" s="7">
         <v>3</v>
@@ -10922,19 +10925,19 @@
         <v>6</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H22" s="11"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B23" s="7">
         <v>3</v>
@@ -10946,19 +10949,19 @@
         <v>6</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H23" s="11"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B24" s="7">
         <v>3</v>
@@ -10970,19 +10973,19 @@
         <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H24" s="11"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B25" s="7">
         <v>3</v>
@@ -10994,19 +10997,19 @@
         <v>6</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H25" s="11"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B26" s="7">
         <v>3</v>
@@ -11018,19 +11021,19 @@
         <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H26" s="11"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B27" s="7">
         <v>3</v>
@@ -11042,19 +11045,19 @@
         <v>6</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H27" s="11"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B28" s="7">
         <v>3</v>
@@ -11066,19 +11069,19 @@
         <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H28" s="11"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B29" s="7">
         <v>3</v>
@@ -11090,19 +11093,19 @@
         <v>6</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H29" s="11"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B30" s="7">
         <v>3</v>
@@ -11114,19 +11117,19 @@
         <v>6</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H30" s="11"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B31" s="7">
         <v>3</v>
@@ -11138,19 +11141,19 @@
         <v>6</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H31" s="11"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B32" s="7">
         <v>3</v>
@@ -11162,19 +11165,19 @@
         <v>6</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H32" s="11"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B33" s="7">
         <v>3</v>
@@ -11186,19 +11189,19 @@
         <v>6</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H33" s="11"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B34" s="7">
         <v>3</v>
@@ -11210,19 +11213,19 @@
         <v>6</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H34" s="11"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B35" s="7">
         <v>3</v>
@@ -11234,19 +11237,19 @@
         <v>6</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H35" s="11"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B36" s="7">
         <v>3</v>
@@ -11258,19 +11261,19 @@
         <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H36" s="11"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B37" s="7">
         <v>3</v>
@@ -11282,19 +11285,19 @@
         <v>6</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H37" s="11"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B38" s="7">
         <v>3</v>
@@ -11306,19 +11309,19 @@
         <v>6</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H38" s="11"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B39" s="7">
         <v>3</v>
@@ -11330,19 +11333,19 @@
         <v>6</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H39" s="11"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B40" s="7">
         <v>3</v>
@@ -11354,19 +11357,19 @@
         <v>6</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H40" s="11"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B41" s="7">
         <v>3</v>
@@ -11378,19 +11381,19 @@
         <v>6</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H41" s="11"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B42" s="7">
         <v>3</v>
@@ -11402,19 +11405,19 @@
         <v>6</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H42" s="11"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B43" s="7">
         <v>3</v>
@@ -11426,19 +11429,19 @@
         <v>6</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H43" s="11"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B44" s="7">
         <v>3</v>
@@ -11450,19 +11453,19 @@
         <v>6</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H44" s="11"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B45" s="7">
         <v>3</v>
@@ -11474,19 +11477,19 @@
         <v>6</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H45" s="11"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B46" s="7">
         <v>3</v>
@@ -11498,19 +11501,19 @@
         <v>6</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H46" s="11"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B47" s="7">
         <v>3</v>
@@ -11522,19 +11525,19 @@
         <v>6</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H47" s="11"/>
     </row>
     <row r="48" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B48" s="7">
         <v>3</v>
@@ -11546,19 +11549,19 @@
         <v>6</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H48" s="11"/>
     </row>
     <row r="49" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B49" s="7">
         <v>3</v>
@@ -11570,19 +11573,19 @@
         <v>6</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H49" s="11"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B50" s="7">
         <v>3</v>
@@ -11594,19 +11597,19 @@
         <v>6</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H50" s="11"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B51" s="7">
         <v>3</v>
@@ -11618,19 +11621,19 @@
         <v>6</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H51" s="11"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B52" s="7">
         <v>3</v>
@@ -11642,19 +11645,19 @@
         <v>6</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H52" s="11"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B53" s="7">
         <v>3</v>
@@ -11666,19 +11669,19 @@
         <v>6</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H53" s="11"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B54" s="7">
         <v>3</v>
@@ -11690,19 +11693,19 @@
         <v>6</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H54" s="11"/>
     </row>
     <row r="55" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B55" s="7">
         <v>3</v>
@@ -11714,19 +11717,19 @@
         <v>6</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H55" s="11"/>
     </row>
     <row r="56" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B56" s="7">
         <v>3</v>
@@ -11738,19 +11741,19 @@
         <v>6</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H56" s="11"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B57" s="7">
         <v>3</v>
@@ -11762,19 +11765,19 @@
         <v>6</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H57" s="11"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B58" s="7">
         <v>3</v>
@@ -11786,19 +11789,19 @@
         <v>6</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H58" s="11"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B59" s="7">
         <v>3</v>
@@ -11810,19 +11813,19 @@
         <v>6</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H59" s="11"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B60" s="7">
         <v>3</v>
@@ -11834,19 +11837,19 @@
         <v>6</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H60" s="11"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B61" s="7">
         <v>3</v>
@@ -11858,19 +11861,19 @@
         <v>6</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H61" s="11"/>
     </row>
     <row r="62" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B62" s="7">
         <v>3</v>
@@ -11882,19 +11885,19 @@
         <v>6</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H62" s="11"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B63" s="7">
         <v>3</v>
@@ -11906,19 +11909,19 @@
         <v>6</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H63" s="11"/>
     </row>
     <row r="64" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B64" s="7">
         <v>3</v>
@@ -11930,19 +11933,19 @@
         <v>6</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="H64" s="11"/>
     </row>
     <row r="65" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B65" s="7">
         <v>3</v>
@@ -11954,19 +11957,19 @@
         <v>6</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H65" s="11"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B66" s="7">
         <v>3</v>
@@ -11978,19 +11981,19 @@
         <v>6</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H66" s="11"/>
     </row>
     <row r="67" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B67" s="7">
         <v>3</v>
@@ -12002,19 +12005,19 @@
         <v>6</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H67" s="11"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B68" s="7">
         <v>3</v>
@@ -12026,19 +12029,19 @@
         <v>6</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H68" s="11"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B69" s="7">
         <v>3</v>
@@ -12050,19 +12053,19 @@
         <v>6</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H69" s="11"/>
     </row>
     <row r="70" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B70" s="7">
         <v>3</v>
@@ -12074,19 +12077,19 @@
         <v>6</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H70" s="11"/>
     </row>
     <row r="71" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B71" s="7">
         <v>3</v>
@@ -12098,19 +12101,19 @@
         <v>6</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="H71" s="11"/>
     </row>
     <row r="72" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B72" s="7">
         <v>3</v>
@@ -12122,19 +12125,19 @@
         <v>6</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H72" s="11"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B73" s="7">
         <v>3</v>
@@ -12146,19 +12149,19 @@
         <v>6</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H73" s="11"/>
     </row>
     <row r="74" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B74" s="7">
         <v>3</v>
@@ -12170,19 +12173,19 @@
         <v>6</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H74" s="11"/>
     </row>
     <row r="75" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B75" s="7">
         <v>3</v>
@@ -12194,19 +12197,19 @@
         <v>6</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H75" s="11"/>
     </row>
     <row r="76" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B76" s="7">
         <v>3</v>
@@ -12218,19 +12221,19 @@
         <v>6</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="H76" s="11"/>
     </row>
     <row r="77" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B77" s="7">
         <v>3</v>
@@ -12242,19 +12245,19 @@
         <v>6</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="H77" s="11"/>
     </row>
     <row r="78" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B78" s="7">
         <v>3</v>
@@ -12266,19 +12269,19 @@
         <v>6</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H78" s="11"/>
     </row>
     <row r="79" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B79" s="7">
         <v>3</v>
@@ -12290,19 +12293,19 @@
         <v>6</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="H79" s="11"/>
     </row>
     <row r="80" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B80" s="7">
         <v>3</v>
@@ -12314,19 +12317,19 @@
         <v>6</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="H80" s="11"/>
     </row>
     <row r="81" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B81" s="7">
         <v>3</v>
@@ -12338,19 +12341,19 @@
         <v>6</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H81" s="11"/>
     </row>
     <row r="82" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B82" s="7">
         <v>3</v>
@@ -12362,19 +12365,19 @@
         <v>6</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H82" s="11"/>
     </row>
     <row r="83" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B83" s="7">
         <v>3</v>
@@ -12386,19 +12389,19 @@
         <v>6</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="H83" s="11"/>
     </row>
     <row r="84" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B84" s="7">
         <v>3</v>
@@ -12410,19 +12413,19 @@
         <v>6</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H84" s="11"/>
     </row>
     <row r="85" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B85" s="7">
         <v>3</v>
@@ -12434,19 +12437,19 @@
         <v>6</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H85" s="11"/>
     </row>
     <row r="86" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B86" s="7">
         <v>3</v>
@@ -12458,19 +12461,19 @@
         <v>6</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H86" s="11"/>
     </row>
     <row r="87" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B87" s="7">
         <v>3</v>
@@ -12482,19 +12485,19 @@
         <v>6</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="H87" s="11"/>
     </row>
     <row r="88" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B88" s="7">
         <v>3</v>
@@ -12506,19 +12509,19 @@
         <v>6</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="H88" s="11"/>
     </row>
     <row r="89" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B89" s="7">
         <v>3</v>
@@ -12530,19 +12533,19 @@
         <v>6</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H89" s="11"/>
     </row>
     <row r="90" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B90" s="7">
         <v>3</v>
@@ -12554,19 +12557,19 @@
         <v>6</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H90" s="11"/>
     </row>
     <row r="91" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B91" s="7">
         <v>3</v>
@@ -12578,13 +12581,13 @@
         <v>6</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="H91" s="11"/>
     </row>
@@ -12641,18 +12644,18 @@
         <v>6</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>432</v>
+        <v>812</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -12664,13 +12667,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="1"/>
@@ -12690,7 +12693,7 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -12702,13 +12705,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="1"/>
@@ -12728,7 +12731,7 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -12740,13 +12743,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="1"/>
@@ -12766,7 +12769,7 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A5" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -12778,13 +12781,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="1"/>
@@ -12804,7 +12807,7 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A6" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -12816,13 +12819,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="1"/>
@@ -12842,7 +12845,7 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
@@ -12854,13 +12857,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="1"/>
@@ -12880,7 +12883,7 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A8" s="1" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
@@ -12892,13 +12895,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="1"/>
@@ -12918,7 +12921,7 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
@@ -12930,13 +12933,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="1"/>
@@ -12956,7 +12959,7 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A10" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
@@ -12968,13 +12971,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="1"/>
@@ -12994,7 +12997,7 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
@@ -13006,13 +13009,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="1"/>
@@ -13032,7 +13035,7 @@
     </row>
     <row r="12" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
@@ -13044,19 +13047,19 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="H12" s="12"/>
     </row>
     <row r="13" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B13" s="8">
         <v>1</v>
@@ -13068,19 +13071,19 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H13" s="12"/>
     </row>
     <row r="14" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B14" s="8">
         <v>1</v>
@@ -13092,19 +13095,19 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H14" s="12"/>
     </row>
     <row r="15" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B15" s="8">
         <v>1</v>
@@ -13116,19 +13119,19 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="H15" s="12"/>
     </row>
     <row r="16" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B16" s="8">
         <v>1</v>
@@ -13140,19 +13143,19 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H16" s="12"/>
     </row>
     <row r="17" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B17" s="8">
         <v>1</v>
@@ -13164,19 +13167,19 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H17" s="12"/>
     </row>
     <row r="18" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B18" s="8">
         <v>1</v>
@@ -13188,19 +13191,19 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="H18" s="12"/>
     </row>
     <row r="19" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
@@ -13212,19 +13215,19 @@
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H19" s="12"/>
     </row>
     <row r="20" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B20" s="8">
         <v>1</v>
@@ -13236,19 +13239,19 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H20" s="12"/>
     </row>
     <row r="21" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B21" s="8">
         <v>1</v>
@@ -13260,19 +13263,19 @@
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H21" s="12"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B22" s="7">
         <v>1</v>
@@ -13284,19 +13287,19 @@
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H22" s="11"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B23" s="7">
         <v>1</v>
@@ -13308,19 +13311,19 @@
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="H23" s="11"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B24" s="7">
         <v>1</v>
@@ -13332,19 +13335,19 @@
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="H24" s="11"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B25" s="7">
         <v>1</v>
@@ -13356,19 +13359,19 @@
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="H25" s="11"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B26" s="7">
         <v>1</v>
@@ -13380,19 +13383,19 @@
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="H26" s="11"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B27" s="7">
         <v>1</v>
@@ -13404,19 +13407,19 @@
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="H27" s="11"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B28" s="7">
         <v>1</v>
@@ -13428,19 +13431,19 @@
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="H28" s="11"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B29" s="7">
         <v>1</v>
@@ -13452,19 +13455,19 @@
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="H29" s="11"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B30" s="7">
         <v>1</v>
@@ -13476,19 +13479,19 @@
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="H30" s="11"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B31" s="7">
         <v>1</v>
@@ -13500,13 +13503,13 @@
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H31" s="11"/>
     </row>
@@ -13563,18 +13566,18 @@
         <v>6</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>432</v>
+        <v>812</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B2" s="7">
         <v>2</v>
@@ -13586,16 +13589,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H2" s="11"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -13607,16 +13610,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="H3" s="11"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B4" s="7">
         <v>2</v>
@@ -13628,16 +13631,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="H4" s="11"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B5" s="7">
         <v>2</v>
@@ -13649,16 +13652,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H5" s="11"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B6" s="7">
         <v>2</v>
@@ -13670,16 +13673,16 @@
         <v>1</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H6" s="11"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B7" s="7">
         <v>2</v>
@@ -13691,16 +13694,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="H7" s="11"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B8" s="7">
         <v>2</v>
@@ -13712,16 +13715,16 @@
         <v>1</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H8" s="11"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B9" s="7">
         <v>2</v>
@@ -13733,16 +13736,16 @@
         <v>1</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="H9" s="11"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B10" s="7">
         <v>2</v>
@@ -13754,16 +13757,16 @@
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="H10" s="11"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B11" s="7">
         <v>2</v>
@@ -13775,16 +13778,16 @@
         <v>1</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="H11" s="11"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B12" s="7">
         <v>2</v>
@@ -13796,16 +13799,16 @@
         <v>1</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H12" s="11"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B13" s="7">
         <v>2</v>
@@ -13817,16 +13820,16 @@
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H13" s="11"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B14" s="7">
         <v>2</v>
@@ -13838,16 +13841,16 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B15" s="7">
         <v>2</v>
@@ -13859,16 +13862,16 @@
         <v>1</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H15" s="11"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B16" s="7">
         <v>2</v>
@@ -13880,16 +13883,16 @@
         <v>1</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="H16" s="11"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B17" s="7">
         <v>2</v>
@@ -13901,16 +13904,16 @@
         <v>1</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H17" s="11"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B18" s="7">
         <v>2</v>
@@ -13922,16 +13925,16 @@
         <v>1</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="H18" s="11"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B19" s="7">
         <v>2</v>
@@ -13943,16 +13946,16 @@
         <v>1</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="H19" s="11"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B20" s="7">
         <v>2</v>
@@ -13964,16 +13967,16 @@
         <v>1</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="H20" s="11"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B21" s="7">
         <v>2</v>
@@ -13985,16 +13988,16 @@
         <v>1</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="H21" s="11"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B22" s="7">
         <v>2</v>
@@ -14006,16 +14009,16 @@
         <v>1</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H22" s="11"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B23" s="7">
         <v>2</v>
@@ -14027,16 +14030,16 @@
         <v>1</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H23" s="11"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B24" s="7">
         <v>2</v>
@@ -14048,16 +14051,16 @@
         <v>1</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="H24" s="11"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B25" s="7">
         <v>2</v>
@@ -14069,16 +14072,16 @@
         <v>1</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H25" s="11"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B26" s="7">
         <v>2</v>
@@ -14090,16 +14093,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="H26" s="11"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B27" s="7">
         <v>2</v>
@@ -14111,16 +14114,16 @@
         <v>1</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="H27" s="11"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B28" s="7">
         <v>2</v>
@@ -14132,16 +14135,16 @@
         <v>1</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H28" s="11"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B29" s="7">
         <v>2</v>
@@ -14153,16 +14156,16 @@
         <v>1</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H29" s="11"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B30" s="7">
         <v>2</v>
@@ -14174,16 +14177,16 @@
         <v>1</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="H30" s="11"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B31" s="7">
         <v>2</v>
@@ -14195,16 +14198,16 @@
         <v>1</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="H31" s="11"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B32" s="7">
         <v>2</v>
@@ -14216,16 +14219,16 @@
         <v>1</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H32" s="11"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B33" s="7">
         <v>2</v>
@@ -14237,16 +14240,16 @@
         <v>1</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="H33" s="11"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B34" s="7">
         <v>2</v>
@@ -14258,16 +14261,16 @@
         <v>1</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="H34" s="11"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B35" s="7">
         <v>2</v>
@@ -14279,16 +14282,16 @@
         <v>1</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H35" s="11"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B36" s="7">
         <v>2</v>
@@ -14300,16 +14303,16 @@
         <v>1</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="H36" s="11"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B37" s="7">
         <v>2</v>
@@ -14321,16 +14324,16 @@
         <v>1</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="H37" s="11"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B38" s="7">
         <v>2</v>
@@ -14342,16 +14345,16 @@
         <v>1</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H38" s="11"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B39" s="7">
         <v>2</v>
@@ -14363,16 +14366,16 @@
         <v>1</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="H39" s="11"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B40" s="7">
         <v>2</v>
@@ -14384,16 +14387,16 @@
         <v>1</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="H40" s="11"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B41" s="7">
         <v>2</v>
@@ -14405,16 +14408,16 @@
         <v>1</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="H41" s="11"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B42" s="7">
         <v>2</v>
@@ -14426,16 +14429,16 @@
         <v>1</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H42" s="11"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B43" s="7">
         <v>2</v>
@@ -14447,16 +14450,16 @@
         <v>1</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="H43" s="11"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B44" s="7">
         <v>2</v>
@@ -14468,16 +14471,16 @@
         <v>1</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H44" s="11"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B45" s="7">
         <v>2</v>
@@ -14489,16 +14492,16 @@
         <v>1</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H45" s="11"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B46" s="7">
         <v>2</v>
@@ -14510,16 +14513,16 @@
         <v>1</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="H46" s="11"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B47" s="7">
         <v>2</v>
@@ -14531,16 +14534,16 @@
         <v>1</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="H47" s="11"/>
     </row>
     <row r="48" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B48" s="7">
         <v>2</v>
@@ -14552,16 +14555,16 @@
         <v>1</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H48" s="11"/>
     </row>
     <row r="49" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B49" s="7">
         <v>2</v>
@@ -14573,16 +14576,16 @@
         <v>1</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="H49" s="11"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B50" s="7">
         <v>2</v>
@@ -14594,16 +14597,16 @@
         <v>1</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H50" s="11"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B51" s="7">
         <v>2</v>
@@ -14615,16 +14618,16 @@
         <v>1</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H51" s="11"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B52" s="7">
         <v>2</v>
@@ -14636,16 +14639,16 @@
         <v>1</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H52" s="11"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B53" s="7">
         <v>2</v>
@@ -14657,16 +14660,16 @@
         <v>1</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="H53" s="11"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B54" s="7">
         <v>2</v>
@@ -14678,16 +14681,16 @@
         <v>1</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H54" s="11"/>
     </row>
     <row r="55" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B55" s="7">
         <v>2</v>
@@ -14699,16 +14702,16 @@
         <v>1</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H55" s="11"/>
     </row>
     <row r="56" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B56" s="7">
         <v>2</v>
@@ -14720,16 +14723,16 @@
         <v>1</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H56" s="11"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B57" s="7">
         <v>2</v>
@@ -14741,16 +14744,16 @@
         <v>1</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="H57" s="11"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B58" s="7">
         <v>2</v>
@@ -14762,16 +14765,16 @@
         <v>1</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H58" s="11"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B59" s="7">
         <v>2</v>
@@ -14783,16 +14786,16 @@
         <v>1</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="H59" s="11"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B60" s="7">
         <v>2</v>
@@ -14804,16 +14807,16 @@
         <v>1</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H60" s="11"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B61" s="7">
         <v>2</v>
@@ -14825,16 +14828,16 @@
         <v>1</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="H61" s="11"/>
     </row>
     <row r="62" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B62" s="7">
         <v>2</v>
@@ -14846,16 +14849,16 @@
         <v>1</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H62" s="11"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B63" s="7">
         <v>2</v>
@@ -14867,16 +14870,16 @@
         <v>1</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="H63" s="11"/>
     </row>
     <row r="64" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B64" s="7">
         <v>2</v>
@@ -14888,16 +14891,16 @@
         <v>1</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H64" s="11"/>
     </row>
     <row r="65" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B65" s="7">
         <v>2</v>
@@ -14909,16 +14912,16 @@
         <v>1</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H65" s="11"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B66" s="7">
         <v>2</v>
@@ -14930,16 +14933,16 @@
         <v>1</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="H66" s="11"/>
     </row>
     <row r="67" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B67" s="7">
         <v>2</v>
@@ -14951,16 +14954,16 @@
         <v>1</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H67" s="11"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B68" s="7">
         <v>2</v>
@@ -14972,16 +14975,16 @@
         <v>1</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H68" s="11"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B69" s="7">
         <v>2</v>
@@ -14993,16 +14996,16 @@
         <v>1</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="H69" s="11"/>
     </row>
     <row r="70" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B70" s="7">
         <v>2</v>
@@ -15014,16 +15017,16 @@
         <v>1</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="H70" s="11"/>
     </row>
     <row r="71" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B71" s="7">
         <v>2</v>
@@ -15035,16 +15038,16 @@
         <v>1</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="H71" s="11"/>
     </row>
     <row r="72" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B72" s="7">
         <v>2</v>
@@ -15056,16 +15059,16 @@
         <v>1</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H72" s="11"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B73" s="7">
         <v>2</v>
@@ -15077,16 +15080,16 @@
         <v>1</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H73" s="11"/>
     </row>
     <row r="74" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B74" s="7">
         <v>2</v>
@@ -15098,16 +15101,16 @@
         <v>1</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="H74" s="11"/>
     </row>
     <row r="75" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B75" s="7">
         <v>2</v>
@@ -15119,16 +15122,16 @@
         <v>1</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H75" s="11"/>
     </row>
     <row r="76" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B76" s="7">
         <v>2</v>
@@ -15140,16 +15143,16 @@
         <v>1</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H76" s="11"/>
     </row>
     <row r="77" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B77" s="7">
         <v>2</v>
@@ -15161,16 +15164,16 @@
         <v>1</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H77" s="11"/>
     </row>
     <row r="78" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B78" s="7">
         <v>2</v>
@@ -15182,16 +15185,16 @@
         <v>1</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H78" s="11"/>
     </row>
     <row r="79" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B79" s="7">
         <v>2</v>
@@ -15203,16 +15206,16 @@
         <v>1</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="H79" s="11"/>
     </row>
     <row r="80" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B80" s="7">
         <v>2</v>
@@ -15224,16 +15227,16 @@
         <v>1</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="H80" s="11"/>
     </row>
     <row r="81" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B81" s="7">
         <v>2</v>
@@ -15245,16 +15248,16 @@
         <v>1</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H81" s="11"/>
     </row>
     <row r="82" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B82" s="7">
         <v>2</v>
@@ -15266,16 +15269,16 @@
         <v>1</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H82" s="11"/>
     </row>
     <row r="83" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B83" s="7">
         <v>2</v>
@@ -15287,16 +15290,16 @@
         <v>1</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="H83" s="11"/>
     </row>
     <row r="84" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B84" s="7">
         <v>2</v>
@@ -15308,16 +15311,16 @@
         <v>1</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="H84" s="11"/>
     </row>
     <row r="85" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B85" s="7">
         <v>2</v>
@@ -15329,16 +15332,16 @@
         <v>1</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H85" s="11"/>
     </row>
     <row r="86" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B86" s="7">
         <v>2</v>
@@ -15350,16 +15353,16 @@
         <v>1</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="H86" s="11"/>
     </row>
     <row r="87" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B87" s="7">
         <v>2</v>
@@ -15371,16 +15374,16 @@
         <v>1</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="H87" s="11"/>
     </row>
     <row r="88" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B88" s="7">
         <v>2</v>
@@ -15392,16 +15395,16 @@
         <v>1</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H88" s="11"/>
     </row>
     <row r="89" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B89" s="7">
         <v>2</v>
@@ -15413,16 +15416,16 @@
         <v>1</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H89" s="11"/>
     </row>
     <row r="90" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B90" s="7">
         <v>2</v>
@@ -15434,16 +15437,16 @@
         <v>1</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="H90" s="11"/>
     </row>
     <row r="91" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B91" s="7">
         <v>2</v>
@@ -15455,16 +15458,16 @@
         <v>1</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H91" s="11"/>
     </row>
     <row r="92" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B92" s="7">
         <v>2</v>
@@ -15476,16 +15479,16 @@
         <v>1</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="H92" s="11"/>
     </row>
     <row r="93" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B93" s="7">
         <v>2</v>
@@ -15497,16 +15500,16 @@
         <v>1</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="H93" s="11"/>
     </row>
     <row r="94" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B94" s="7">
         <v>2</v>
@@ -15518,16 +15521,16 @@
         <v>1</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H94" s="11"/>
     </row>
     <row r="95" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B95" s="7">
         <v>2</v>
@@ -15539,16 +15542,16 @@
         <v>1</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="H95" s="11"/>
     </row>
     <row r="96" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B96" s="7">
         <v>2</v>
@@ -15560,16 +15563,16 @@
         <v>1</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="H96" s="11"/>
     </row>
     <row r="97" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B97" s="7">
         <v>2</v>
@@ -15581,16 +15584,16 @@
         <v>1</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="H97" s="11"/>
     </row>
     <row r="98" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B98" s="7">
         <v>2</v>
@@ -15602,16 +15605,16 @@
         <v>1</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="H98" s="11"/>
     </row>
     <row r="99" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B99" s="7">
         <v>2</v>
@@ -15623,16 +15626,16 @@
         <v>1</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="H99" s="11"/>
     </row>
     <row r="100" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B100" s="7">
         <v>2</v>
@@ -15644,16 +15647,16 @@
         <v>1</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H100" s="11"/>
     </row>
     <row r="101" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B101" s="7">
         <v>2</v>
@@ -15665,10 +15668,10 @@
         <v>1</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="H101" s="11"/>
     </row>
@@ -18921,7 +18924,7 @@
     </row>
     <row r="162" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A162" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B162" s="7">
         <v>3</v>
@@ -18933,15 +18936,15 @@
         <v>6</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="163" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A163" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B163" s="7">
         <v>3</v>
@@ -18953,15 +18956,15 @@
         <v>6</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="164" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A164" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B164" s="7">
         <v>3</v>
@@ -18973,15 +18976,15 @@
         <v>6</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="165" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A165" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B165" s="7">
         <v>3</v>
@@ -18993,15 +18996,15 @@
         <v>6</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="166" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A166" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B166" s="7">
         <v>3</v>
@@ -19013,15 +19016,15 @@
         <v>6</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="167" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A167" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B167" s="7">
         <v>3</v>
@@ -19033,15 +19036,15 @@
         <v>6</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A168" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B168" s="7">
         <v>3</v>
@@ -19053,15 +19056,15 @@
         <v>6</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A169" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B169" s="7">
         <v>3</v>
@@ -19073,15 +19076,15 @@
         <v>6</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="170" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A170" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B170" s="7">
         <v>3</v>
@@ -19093,15 +19096,15 @@
         <v>6</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="171" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A171" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B171" s="7">
         <v>3</v>
@@ -19113,15 +19116,15 @@
         <v>6</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A172" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B172" s="7">
         <v>3</v>
@@ -19133,15 +19136,15 @@
         <v>6</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A173" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B173" s="7">
         <v>3</v>
@@ -19153,15 +19156,15 @@
         <v>6</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A174" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B174" s="7">
         <v>3</v>
@@ -19173,15 +19176,15 @@
         <v>6</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="175" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A175" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B175" s="7">
         <v>3</v>
@@ -19193,15 +19196,15 @@
         <v>6</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="176" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A176" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B176" s="7">
         <v>3</v>
@@ -19213,15 +19216,15 @@
         <v>6</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A177" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B177" s="7">
         <v>3</v>
@@ -19233,15 +19236,15 @@
         <v>6</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A178" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B178" s="7">
         <v>3</v>
@@ -19253,15 +19256,15 @@
         <v>6</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="179" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A179" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B179" s="7">
         <v>3</v>
@@ -19273,15 +19276,15 @@
         <v>6</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A180" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B180" s="7">
         <v>3</v>
@@ -19293,15 +19296,15 @@
         <v>6</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A181" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B181" s="7">
         <v>3</v>
@@ -19313,15 +19316,15 @@
         <v>6</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A182" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B182" s="7">
         <v>3</v>
@@ -19333,15 +19336,15 @@
         <v>6</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="183" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A183" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B183" s="7">
         <v>3</v>
@@ -19353,15 +19356,15 @@
         <v>6</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="184" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A184" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B184" s="7">
         <v>3</v>
@@ -19373,15 +19376,15 @@
         <v>6</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="185" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A185" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B185" s="7">
         <v>3</v>
@@ -19393,15 +19396,15 @@
         <v>6</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="186" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A186" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B186" s="7">
         <v>3</v>
@@ -19413,15 +19416,15 @@
         <v>6</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="187" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A187" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B187" s="7">
         <v>3</v>
@@ -19433,15 +19436,15 @@
         <v>6</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="188" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A188" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B188" s="7">
         <v>3</v>
@@ -19453,15 +19456,15 @@
         <v>6</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="189" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A189" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B189" s="7">
         <v>3</v>
@@ -19473,15 +19476,15 @@
         <v>6</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="190" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A190" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B190" s="7">
         <v>3</v>
@@ -19493,15 +19496,15 @@
         <v>6</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="191" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A191" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B191" s="7">
         <v>3</v>
@@ -19513,15 +19516,15 @@
         <v>6</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="192" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A192" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B192" s="7">
         <v>3</v>
@@ -19533,15 +19536,15 @@
         <v>6</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A193" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B193" s="7">
         <v>3</v>
@@ -19553,15 +19556,15 @@
         <v>6</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="194" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A194" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B194" s="7">
         <v>3</v>
@@ -19573,15 +19576,15 @@
         <v>6</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="195" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A195" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B195" s="7">
         <v>3</v>
@@ -19593,15 +19596,15 @@
         <v>6</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="196" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A196" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B196" s="7">
         <v>3</v>
@@ -19613,15 +19616,15 @@
         <v>6</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="197" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A197" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B197" s="7">
         <v>3</v>
@@ -19633,15 +19636,15 @@
         <v>6</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="198" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A198" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B198" s="7">
         <v>3</v>
@@ -19653,15 +19656,15 @@
         <v>6</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="199" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A199" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B199" s="7">
         <v>3</v>
@@ -19673,15 +19676,15 @@
         <v>6</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="200" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A200" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B200" s="7">
         <v>3</v>
@@ -19693,15 +19696,15 @@
         <v>6</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="201" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A201" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B201" s="7">
         <v>3</v>
@@ -19713,15 +19716,15 @@
         <v>6</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="202" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A202" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B202" s="7">
         <v>3</v>
@@ -19733,15 +19736,15 @@
         <v>6</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="203" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A203" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B203" s="7">
         <v>3</v>
@@ -19753,15 +19756,15 @@
         <v>6</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="204" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A204" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B204" s="7">
         <v>3</v>
@@ -19773,15 +19776,15 @@
         <v>6</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="205" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A205" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B205" s="7">
         <v>3</v>
@@ -19793,15 +19796,15 @@
         <v>6</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="206" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A206" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B206" s="7">
         <v>3</v>
@@ -19813,15 +19816,15 @@
         <v>6</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="207" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A207" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B207" s="7">
         <v>3</v>
@@ -19833,15 +19836,15 @@
         <v>6</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="208" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A208" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B208" s="7">
         <v>3</v>
@@ -19853,15 +19856,15 @@
         <v>6</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="209" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A209" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B209" s="7">
         <v>3</v>
@@ -19873,15 +19876,15 @@
         <v>6</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="210" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A210" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B210" s="7">
         <v>3</v>
@@ -19893,15 +19896,15 @@
         <v>6</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="211" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A211" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B211" s="7">
         <v>3</v>
@@ -19913,15 +19916,15 @@
         <v>6</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="212" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A212" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B212" s="7">
         <v>3</v>
@@ -19933,15 +19936,15 @@
         <v>6</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="213" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A213" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B213" s="7">
         <v>3</v>
@@ -19953,15 +19956,15 @@
         <v>6</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="214" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A214" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B214" s="7">
         <v>3</v>
@@ -19973,15 +19976,15 @@
         <v>6</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="215" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A215" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B215" s="7">
         <v>3</v>
@@ -19993,15 +19996,15 @@
         <v>6</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="216" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A216" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B216" s="7">
         <v>3</v>
@@ -20013,15 +20016,15 @@
         <v>6</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="217" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A217" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B217" s="7">
         <v>3</v>
@@ -20033,15 +20036,15 @@
         <v>6</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="218" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A218" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B218" s="7">
         <v>3</v>
@@ -20053,15 +20056,15 @@
         <v>6</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="219" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A219" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B219" s="7">
         <v>3</v>
@@ -20073,15 +20076,15 @@
         <v>6</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="220" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A220" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B220" s="7">
         <v>3</v>
@@ -20093,15 +20096,15 @@
         <v>6</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="221" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A221" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B221" s="7">
         <v>3</v>
@@ -20113,15 +20116,15 @@
         <v>6</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="222" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A222" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B222" s="7">
         <v>3</v>
@@ -20133,15 +20136,15 @@
         <v>6</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="223" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A223" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B223" s="7">
         <v>3</v>
@@ -20153,15 +20156,15 @@
         <v>6</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="224" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A224" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B224" s="7">
         <v>3</v>
@@ -20173,15 +20176,15 @@
         <v>6</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="225" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A225" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B225" s="7">
         <v>3</v>
@@ -20193,15 +20196,15 @@
         <v>6</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="226" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A226" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B226" s="7">
         <v>3</v>
@@ -20213,15 +20216,15 @@
         <v>6</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="227" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A227" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B227" s="7">
         <v>3</v>
@@ -20233,15 +20236,15 @@
         <v>6</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="228" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A228" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B228" s="7">
         <v>3</v>
@@ -20253,15 +20256,15 @@
         <v>6</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="229" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A229" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B229" s="7">
         <v>3</v>
@@ -20273,15 +20276,15 @@
         <v>6</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="230" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A230" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B230" s="7">
         <v>3</v>
@@ -20293,15 +20296,15 @@
         <v>6</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="231" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A231" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B231" s="7">
         <v>3</v>
@@ -20313,15 +20316,15 @@
         <v>6</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="232" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A232" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B232" s="7">
         <v>3</v>
@@ -20333,15 +20336,15 @@
         <v>6</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="233" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A233" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B233" s="7">
         <v>3</v>
@@ -20353,15 +20356,15 @@
         <v>6</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="234" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A234" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B234" s="7">
         <v>3</v>
@@ -20373,15 +20376,15 @@
         <v>6</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="235" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A235" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B235" s="7">
         <v>3</v>
@@ -20393,15 +20396,15 @@
         <v>6</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="236" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A236" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B236" s="7">
         <v>3</v>
@@ -20413,15 +20416,15 @@
         <v>6</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="237" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A237" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B237" s="7">
         <v>3</v>
@@ -20433,15 +20436,15 @@
         <v>6</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="238" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A238" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B238" s="7">
         <v>3</v>
@@ -20453,15 +20456,15 @@
         <v>6</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="239" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A239" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B239" s="7">
         <v>3</v>
@@ -20473,15 +20476,15 @@
         <v>6</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="240" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A240" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B240" s="7">
         <v>3</v>
@@ -20493,15 +20496,15 @@
         <v>6</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="241" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A241" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B241" s="7">
         <v>3</v>
@@ -20513,15 +20516,15 @@
         <v>6</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="242" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A242" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B242" s="7">
         <v>3</v>
@@ -20533,15 +20536,15 @@
         <v>6</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="243" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A243" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B243" s="7">
         <v>3</v>
@@ -20553,15 +20556,15 @@
         <v>6</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="244" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A244" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B244" s="7">
         <v>3</v>
@@ -20573,15 +20576,15 @@
         <v>6</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="245" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A245" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B245" s="7">
         <v>3</v>
@@ -20593,15 +20596,15 @@
         <v>6</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="246" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A246" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B246" s="7">
         <v>3</v>
@@ -20613,15 +20616,15 @@
         <v>6</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="247" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A247" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B247" s="7">
         <v>3</v>
@@ -20633,15 +20636,15 @@
         <v>6</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="248" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A248" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B248" s="7">
         <v>3</v>
@@ -20653,15 +20656,15 @@
         <v>6</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="249" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A249" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B249" s="7">
         <v>3</v>
@@ -20673,15 +20676,15 @@
         <v>6</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="250" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A250" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B250" s="7">
         <v>3</v>
@@ -20693,15 +20696,15 @@
         <v>6</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="251" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A251" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B251" s="7">
         <v>3</v>
@@ -20713,15 +20716,15 @@
         <v>6</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="252" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A252" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B252" s="7">
         <v>1</v>
@@ -20733,10 +20736,10 @@
         <v>1</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
@@ -20757,7 +20760,7 @@
     </row>
     <row r="253" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A253" s="1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B253" s="7">
         <v>1</v>
@@ -20769,10 +20772,10 @@
         <v>1</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
@@ -20793,7 +20796,7 @@
     </row>
     <row r="254" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A254" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B254" s="7">
         <v>1</v>
@@ -20805,10 +20808,10 @@
         <v>1</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
@@ -20829,7 +20832,7 @@
     </row>
     <row r="255" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A255" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B255" s="7">
         <v>1</v>
@@ -20841,10 +20844,10 @@
         <v>1</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
@@ -20865,7 +20868,7 @@
     </row>
     <row r="256" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A256" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B256" s="7">
         <v>1</v>
@@ -20877,10 +20880,10 @@
         <v>1</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
@@ -20901,7 +20904,7 @@
     </row>
     <row r="257" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A257" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B257" s="7">
         <v>1</v>
@@ -20913,10 +20916,10 @@
         <v>1</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
@@ -20937,7 +20940,7 @@
     </row>
     <row r="258" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A258" s="1" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B258" s="7">
         <v>1</v>
@@ -20949,10 +20952,10 @@
         <v>1</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
@@ -20973,7 +20976,7 @@
     </row>
     <row r="259" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A259" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B259" s="7">
         <v>1</v>
@@ -20985,10 +20988,10 @@
         <v>1</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
@@ -21009,7 +21012,7 @@
     </row>
     <row r="260" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A260" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B260" s="7">
         <v>1</v>
@@ -21021,10 +21024,10 @@
         <v>1</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
@@ -21045,7 +21048,7 @@
     </row>
     <row r="261" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A261" s="1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B261" s="7">
         <v>1</v>
@@ -21057,10 +21060,10 @@
         <v>1</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
@@ -21081,7 +21084,7 @@
     </row>
     <row r="262" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A262" s="3" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B262" s="8">
         <v>1</v>
@@ -21093,15 +21096,15 @@
         <v>1</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="263" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A263" s="3" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B263" s="8">
         <v>1</v>
@@ -21113,15 +21116,15 @@
         <v>1</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="264" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A264" s="3" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B264" s="8">
         <v>1</v>
@@ -21133,15 +21136,15 @@
         <v>1</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="265" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A265" s="3" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B265" s="8">
         <v>1</v>
@@ -21153,15 +21156,15 @@
         <v>1</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="266" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A266" s="3" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B266" s="8">
         <v>1</v>
@@ -21173,15 +21176,15 @@
         <v>1</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="267" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A267" s="3" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B267" s="8">
         <v>1</v>
@@ -21193,15 +21196,15 @@
         <v>1</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="268" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A268" s="3" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B268" s="8">
         <v>1</v>
@@ -21213,15 +21216,15 @@
         <v>1</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="269" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A269" s="3" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B269" s="8">
         <v>1</v>
@@ -21233,15 +21236,15 @@
         <v>1</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="270" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A270" s="3" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B270" s="8">
         <v>1</v>
@@ -21253,15 +21256,15 @@
         <v>1</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="271" s="3" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A271" s="3" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B271" s="8">
         <v>1</v>
@@ -21273,15 +21276,15 @@
         <v>1</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="272" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A272" s="1" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B272" s="7">
         <v>2</v>
@@ -21293,15 +21296,15 @@
         <v>1</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="273" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A273" s="1" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B273" s="7">
         <v>2</v>
@@ -21313,15 +21316,15 @@
         <v>1</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="274" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A274" s="1" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B274" s="7">
         <v>2</v>
@@ -21333,15 +21336,15 @@
         <v>1</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="275" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A275" s="1" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B275" s="7">
         <v>2</v>
@@ -21353,15 +21356,15 @@
         <v>1</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="276" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A276" s="1" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B276" s="7">
         <v>2</v>
@@ -21373,15 +21376,15 @@
         <v>1</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="277" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A277" s="1" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B277" s="7">
         <v>2</v>
@@ -21393,15 +21396,15 @@
         <v>1</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="278" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A278" s="1" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B278" s="7">
         <v>2</v>
@@ -21413,15 +21416,15 @@
         <v>1</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="279" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A279" s="1" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B279" s="7">
         <v>2</v>
@@ -21433,15 +21436,15 @@
         <v>1</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="280" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A280" s="1" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B280" s="7">
         <v>2</v>
@@ -21453,15 +21456,15 @@
         <v>1</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="281" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A281" s="1" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B281" s="7">
         <v>2</v>
@@ -21473,15 +21476,15 @@
         <v>1</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="282" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A282" s="1" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B282" s="7">
         <v>2</v>
@@ -21493,15 +21496,15 @@
         <v>1</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="283" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A283" s="1" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B283" s="7">
         <v>2</v>
@@ -21513,15 +21516,15 @@
         <v>1</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="284" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A284" s="1" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B284" s="7">
         <v>2</v>
@@ -21533,15 +21536,15 @@
         <v>1</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="285" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A285" s="1" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B285" s="7">
         <v>2</v>
@@ -21553,15 +21556,15 @@
         <v>1</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="286" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A286" s="1" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B286" s="7">
         <v>2</v>
@@ -21573,15 +21576,15 @@
         <v>1</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="287" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A287" s="1" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B287" s="7">
         <v>2</v>
@@ -21593,15 +21596,15 @@
         <v>1</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="288" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A288" s="1" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B288" s="7">
         <v>2</v>
@@ -21613,15 +21616,15 @@
         <v>1</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="289" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A289" s="1" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B289" s="7">
         <v>2</v>
@@ -21633,15 +21636,15 @@
         <v>1</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="290" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A290" s="1" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B290" s="7">
         <v>2</v>
@@ -21653,15 +21656,15 @@
         <v>1</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="291" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A291" s="1" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B291" s="7">
         <v>2</v>
@@ -21673,15 +21676,15 @@
         <v>1</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="292" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A292" s="1" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B292" s="7">
         <v>2</v>
@@ -21693,15 +21696,15 @@
         <v>1</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="293" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A293" s="1" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B293" s="7">
         <v>2</v>
@@ -21713,15 +21716,15 @@
         <v>1</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="294" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A294" s="1" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B294" s="7">
         <v>2</v>
@@ -21733,15 +21736,15 @@
         <v>1</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="295" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A295" s="1" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B295" s="7">
         <v>2</v>
@@ -21753,15 +21756,15 @@
         <v>1</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="296" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A296" s="1" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B296" s="7">
         <v>2</v>
@@ -21773,15 +21776,15 @@
         <v>1</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="297" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A297" s="1" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B297" s="7">
         <v>2</v>
@@ -21793,15 +21796,15 @@
         <v>1</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="298" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A298" s="1" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B298" s="7">
         <v>2</v>
@@ -21813,15 +21816,15 @@
         <v>1</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="299" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A299" s="1" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B299" s="7">
         <v>2</v>
@@ -21833,15 +21836,15 @@
         <v>1</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="300" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A300" s="1" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B300" s="7">
         <v>2</v>
@@ -21853,15 +21856,15 @@
         <v>1</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="301" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A301" s="1" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B301" s="7">
         <v>2</v>
@@ -21873,15 +21876,15 @@
         <v>1</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="302" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A302" s="1" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B302" s="7">
         <v>2</v>
@@ -21893,15 +21896,15 @@
         <v>1</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="303" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A303" s="1" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B303" s="7">
         <v>2</v>
@@ -21913,15 +21916,15 @@
         <v>1</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="304" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A304" s="1" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B304" s="7">
         <v>2</v>
@@ -21933,15 +21936,15 @@
         <v>1</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="305" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A305" s="1" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B305" s="7">
         <v>2</v>
@@ -21953,15 +21956,15 @@
         <v>1</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="306" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A306" s="1" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B306" s="7">
         <v>2</v>
@@ -21973,15 +21976,15 @@
         <v>1</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="307" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A307" s="1" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B307" s="7">
         <v>2</v>
@@ -21993,15 +21996,15 @@
         <v>1</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="308" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A308" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B308" s="7">
         <v>2</v>
@@ -22013,15 +22016,15 @@
         <v>1</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="309" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A309" s="1" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B309" s="7">
         <v>2</v>
@@ -22033,15 +22036,15 @@
         <v>1</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="310" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A310" s="1" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B310" s="7">
         <v>2</v>
@@ -22053,15 +22056,15 @@
         <v>1</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="311" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A311" s="1" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B311" s="7">
         <v>2</v>
@@ -22073,15 +22076,15 @@
         <v>1</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="312" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A312" s="1" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B312" s="7">
         <v>2</v>
@@ -22093,15 +22096,15 @@
         <v>1</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="313" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A313" s="1" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B313" s="7">
         <v>2</v>
@@ -22113,15 +22116,15 @@
         <v>1</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="314" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A314" s="1" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B314" s="7">
         <v>2</v>
@@ -22133,15 +22136,15 @@
         <v>1</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="315" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A315" s="1" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B315" s="7">
         <v>2</v>
@@ -22153,15 +22156,15 @@
         <v>1</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="316" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A316" s="1" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B316" s="7">
         <v>2</v>
@@ -22173,15 +22176,15 @@
         <v>1</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="317" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A317" s="1" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B317" s="7">
         <v>2</v>
@@ -22193,15 +22196,15 @@
         <v>1</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="318" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A318" s="1" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B318" s="7">
         <v>2</v>
@@ -22213,15 +22216,15 @@
         <v>1</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="319" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A319" s="1" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B319" s="7">
         <v>2</v>
@@ -22233,15 +22236,15 @@
         <v>1</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="320" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A320" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B320" s="7">
         <v>2</v>
@@ -22253,15 +22256,15 @@
         <v>1</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="321" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A321" s="1" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B321" s="7">
         <v>2</v>
@@ -22273,15 +22276,15 @@
         <v>1</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="322" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A322" s="1" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B322" s="7">
         <v>2</v>
@@ -22293,15 +22296,15 @@
         <v>1</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="323" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A323" s="1" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B323" s="7">
         <v>2</v>
@@ -22313,15 +22316,15 @@
         <v>1</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="324" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A324" s="1" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B324" s="7">
         <v>2</v>
@@ -22333,15 +22336,15 @@
         <v>1</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="325" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A325" s="1" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B325" s="7">
         <v>2</v>
@@ -22353,15 +22356,15 @@
         <v>1</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="326" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A326" s="1" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B326" s="7">
         <v>2</v>
@@ -22373,15 +22376,15 @@
         <v>1</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="327" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A327" s="1" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B327" s="7">
         <v>2</v>
@@ -22393,15 +22396,15 @@
         <v>1</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="328" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A328" s="1" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B328" s="7">
         <v>2</v>
@@ -22413,15 +22416,15 @@
         <v>1</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="329" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A329" s="1" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B329" s="7">
         <v>2</v>
@@ -22433,15 +22436,15 @@
         <v>1</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="330" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A330" s="1" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B330" s="7">
         <v>2</v>
@@ -22453,15 +22456,15 @@
         <v>1</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="331" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A331" s="1" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B331" s="7">
         <v>2</v>
@@ -22473,15 +22476,15 @@
         <v>1</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="332" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A332" s="1" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B332" s="7">
         <v>2</v>
@@ -22493,15 +22496,15 @@
         <v>1</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="333" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A333" s="1" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B333" s="7">
         <v>2</v>
@@ -22513,15 +22516,15 @@
         <v>1</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="334" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A334" s="1" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B334" s="7">
         <v>2</v>
@@ -22533,15 +22536,15 @@
         <v>1</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="335" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A335" s="1" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B335" s="7">
         <v>2</v>
@@ -22553,15 +22556,15 @@
         <v>1</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="336" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A336" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B336" s="7">
         <v>2</v>
@@ -22573,15 +22576,15 @@
         <v>1</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="337" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A337" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B337" s="7">
         <v>2</v>
@@ -22593,15 +22596,15 @@
         <v>1</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="338" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A338" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B338" s="7">
         <v>2</v>
@@ -22613,15 +22616,15 @@
         <v>1</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="339" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A339" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B339" s="7">
         <v>2</v>
@@ -22633,15 +22636,15 @@
         <v>1</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="340" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A340" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B340" s="7">
         <v>2</v>
@@ -22653,15 +22656,15 @@
         <v>1</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="341" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A341" s="1" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B341" s="7">
         <v>2</v>
@@ -22673,15 +22676,15 @@
         <v>1</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="342" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A342" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B342" s="7">
         <v>2</v>
@@ -22693,15 +22696,15 @@
         <v>1</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="343" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A343" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B343" s="7">
         <v>2</v>
@@ -22713,15 +22716,15 @@
         <v>1</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="344" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A344" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B344" s="7">
         <v>2</v>
@@ -22733,15 +22736,15 @@
         <v>1</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="345" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A345" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B345" s="7">
         <v>2</v>
@@ -22753,15 +22756,15 @@
         <v>1</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="346" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A346" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B346" s="7">
         <v>2</v>
@@ -22773,15 +22776,15 @@
         <v>1</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="347" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A347" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B347" s="7">
         <v>2</v>
@@ -22793,15 +22796,15 @@
         <v>1</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="348" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A348" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B348" s="7">
         <v>2</v>
@@ -22813,15 +22816,15 @@
         <v>1</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="349" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A349" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B349" s="7">
         <v>2</v>
@@ -22833,15 +22836,15 @@
         <v>1</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="350" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A350" s="1" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B350" s="7">
         <v>2</v>
@@ -22853,15 +22856,15 @@
         <v>1</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="351" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A351" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B351" s="7">
         <v>2</v>
@@ -22873,15 +22876,15 @@
         <v>1</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="352" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A352" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B352" s="7">
         <v>2</v>
@@ -22893,15 +22896,15 @@
         <v>1</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="353" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A353" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B353" s="7">
         <v>2</v>
@@ -22913,15 +22916,15 @@
         <v>1</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="354" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A354" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B354" s="7">
         <v>2</v>
@@ -22933,15 +22936,15 @@
         <v>1</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="355" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A355" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B355" s="7">
         <v>2</v>
@@ -22953,15 +22956,15 @@
         <v>1</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="356" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A356" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B356" s="7">
         <v>2</v>
@@ -22973,15 +22976,15 @@
         <v>1</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="357" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A357" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B357" s="7">
         <v>2</v>
@@ -22993,15 +22996,15 @@
         <v>1</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="358" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A358" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B358" s="7">
         <v>2</v>
@@ -23013,15 +23016,15 @@
         <v>1</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="359" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A359" s="1" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B359" s="7">
         <v>2</v>
@@ -23033,15 +23036,15 @@
         <v>1</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="360" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A360" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B360" s="7">
         <v>2</v>
@@ -23053,15 +23056,15 @@
         <v>1</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="361" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A361" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B361" s="7">
         <v>2</v>
@@ -23073,15 +23076,15 @@
         <v>1</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="362" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A362" s="1" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B362" s="7">
         <v>2</v>
@@ -23093,15 +23096,15 @@
         <v>1</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="363" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A363" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B363" s="7">
         <v>2</v>
@@ -23113,15 +23116,15 @@
         <v>1</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="364" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A364" s="1" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B364" s="7">
         <v>2</v>
@@ -23133,15 +23136,15 @@
         <v>1</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="365" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A365" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B365" s="7">
         <v>2</v>
@@ -23153,15 +23156,15 @@
         <v>1</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="366" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A366" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B366" s="7">
         <v>2</v>
@@ -23173,15 +23176,15 @@
         <v>1</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="367" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A367" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B367" s="7">
         <v>2</v>
@@ -23193,15 +23196,15 @@
         <v>1</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="368" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A368" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B368" s="7">
         <v>2</v>
@@ -23213,15 +23216,15 @@
         <v>1</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="369" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A369" s="1" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B369" s="7">
         <v>2</v>
@@ -23233,15 +23236,15 @@
         <v>1</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="370" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A370" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B370" s="7">
         <v>2</v>
@@ -23253,15 +23256,15 @@
         <v>1</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="371" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A371" s="1" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B371" s="7">
         <v>2</v>
@@ -23273,15 +23276,15 @@
         <v>1</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="372" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A372" s="1" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B372" s="7">
         <v>1</v>
@@ -23293,15 +23296,15 @@
         <v>1</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="373" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A373" s="1" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B373" s="7">
         <v>1</v>
@@ -23313,15 +23316,15 @@
         <v>1</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="374" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A374" s="1" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B374" s="7">
         <v>1</v>
@@ -23333,15 +23336,15 @@
         <v>1</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="375" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A375" s="1" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B375" s="7">
         <v>1</v>
@@ -23353,15 +23356,15 @@
         <v>1</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="376" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A376" s="1" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B376" s="7">
         <v>1</v>
@@ -23373,15 +23376,15 @@
         <v>1</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="377" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A377" s="1" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B377" s="7">
         <v>1</v>
@@ -23393,15 +23396,15 @@
         <v>1</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="378" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A378" s="1" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B378" s="7">
         <v>1</v>
@@ -23413,15 +23416,15 @@
         <v>1</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="379" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A379" s="1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B379" s="7">
         <v>1</v>
@@ -23433,15 +23436,15 @@
         <v>1</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="380" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A380" s="1" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B380" s="7">
         <v>1</v>
@@ -23453,15 +23456,15 @@
         <v>1</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="381" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A381" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B381" s="7">
         <v>1</v>
@@ -23473,10 +23476,10 @@
         <v>1</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
   </sheetData>
